--- a/data/trans_dic/P45C_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.082729872338517e-08</v>
+        <v>7.105215696510536e-08</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01054922858308335</v>
+        <v>0.009992526589799371</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00334556082539888</v>
+        <v>0.003319353760125875</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00438060383026448</v>
+        <v>0.004007742494012838</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01122590328508175</v>
+        <v>0.01109898091700429</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.005321921525720452</v>
+        <v>0.005331551396609399</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0102247302344364</v>
+        <v>0.01015196806411855</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0006874553823800306</v>
+        <v>0.0006884030711687742</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01330287095797186</v>
+        <v>0.01299394225026106</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.005636974425410046</v>
+        <v>0.005495954533687751</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.008500449506792296</v>
+        <v>0.008548967477881215</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0148165535079652</v>
+        <v>0.01529256312578105</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03359583184382182</v>
+        <v>0.0313442760271686</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01947042276358575</v>
+        <v>0.01865585165039406</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02194905134387223</v>
+        <v>0.02088474305741943</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.007485720819025899</v>
+        <v>0.007426749649881417</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03454875582560829</v>
+        <v>0.03433523603154973</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02118012254468314</v>
+        <v>0.021386981735738</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03018195939020513</v>
+        <v>0.02911616770661359</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.008810317425140301</v>
+        <v>0.008879782424962571</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02908564618284672</v>
+        <v>0.02784632307702159</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01602859349512059</v>
+        <v>0.01599666643673297</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0204856187566068</v>
+        <v>0.02171765750390243</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00760013141760412</v>
+        <v>0.008070161869429588</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007225040726427187</v>
+        <v>0.007233181759597841</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002894190468613431</v>
+        <v>0.002820821857429716</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.009765339368723759</v>
+        <v>0.01051820275720412</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.008763145274296603</v>
+        <v>0.008711549684661419</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.008192106562011253</v>
+        <v>0.008306854988296749</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005913201709494467</v>
+        <v>0.006027215649168497</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01052597624756248</v>
+        <v>0.01045991109916604</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01035678506047528</v>
+        <v>0.01012161763821287</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.009511182561271484</v>
+        <v>0.009376567220416335</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.006099696518639928</v>
+        <v>0.005851316344175515</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01191818064710858</v>
+        <v>0.01171282554659929</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02437917998699388</v>
+        <v>0.02451593741571844</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02320827287541435</v>
+        <v>0.02450287466388291</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01564601292101273</v>
+        <v>0.01625588581394377</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0321735679116421</v>
+        <v>0.0323046313469517</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02470567777899472</v>
+        <v>0.02504931591128817</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02408148041801782</v>
+        <v>0.02385151523993432</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02127601007750517</v>
+        <v>0.02102358340493995</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02541011653286776</v>
+        <v>0.02474059131533051</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02145899854862589</v>
+        <v>0.02149543594126385</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02030788751259547</v>
+        <v>0.02092941274513483</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01549662180804474</v>
+        <v>0.0156505509831439</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02412626379427075</v>
+        <v>0.02525071888389496</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01611636836425735</v>
+        <v>0.01685575535623957</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006409401465626779</v>
+        <v>0.006602551799635033</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007881292296362858</v>
+        <v>0.007970660958715074</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01133471746547546</v>
+        <v>0.01270331404737638</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01542417997871149</v>
+        <v>0.01481216455093175</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.002597606416419089</v>
+        <v>0.002747953135825201</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006450376373760845</v>
+        <v>0.006584229260914242</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01460970081090048</v>
+        <v>0.01557519561344064</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01871307487059729</v>
+        <v>0.01893216500041089</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.006662211059220174</v>
+        <v>0.006382734432369784</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.00853533615084248</v>
+        <v>0.009082053932427234</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01612684972219339</v>
+        <v>0.01658576446372562</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04354273987215201</v>
+        <v>0.04456597961708457</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02311022179505576</v>
+        <v>0.02469503509744722</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02964325733506831</v>
+        <v>0.02831367674018968</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03800179598980834</v>
+        <v>0.03955028520816255</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03967150532969081</v>
+        <v>0.03991698564866723</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01644544887856904</v>
+        <v>0.01571240385816783</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02335323887628141</v>
+        <v>0.02328992595100734</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03765360989442246</v>
+        <v>0.03829923544803907</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03694113054526288</v>
+        <v>0.03696063133711799</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01745198677133049</v>
+        <v>0.01687645156796497</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02156588704566716</v>
+        <v>0.02257320868851318</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03433344629364107</v>
+        <v>0.03465083867283083</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.008832419364822534</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.006476401597049958</v>
+        <v>0.00647640159704996</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02149491087011467</v>
@@ -1105,7 +1105,7 @@
         <v>0.00732339300898861</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.01099230993075461</v>
+        <v>0.01099230993075462</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01295361115570081</v>
+        <v>0.01289390163825002</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003044551443710775</v>
+        <v>0.002975402273867259</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0019238427267305</v>
+        <v>0.001941499963049157</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009094205954775815</v>
+        <v>0.009183311832622396</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01444355381584606</v>
+        <v>0.01379145363973982</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01350161683653118</v>
+        <v>0.01268709048206502</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003867502553228209</v>
+        <v>0.004039873696352194</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.003156956308933638</v>
+        <v>0.003420445512148834</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01573358054098823</v>
+        <v>0.01547094987494991</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.009558403775398575</v>
+        <v>0.009544106903507647</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.00418238466480604</v>
+        <v>0.004362364757211161</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.007309497207740412</v>
+        <v>0.007518296220192396</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03189116728265214</v>
+        <v>0.03241186569986885</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0141952334399691</v>
+        <v>0.01405136870820001</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01143790892961882</v>
+        <v>0.01137577408730019</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02793347966883425</v>
+        <v>0.02679375371886688</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03328525413631705</v>
+        <v>0.03326363740247128</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03179561799314626</v>
+        <v>0.03064054400874196</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01665326246155122</v>
+        <v>0.01577346006441349</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01112894534398952</v>
+        <v>0.0116987365475768</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02915664033182362</v>
+        <v>0.02903359041811183</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02032428267720342</v>
+        <v>0.0193991270823986</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01219001721902252</v>
+        <v>0.01181164304809504</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0163509996461407</v>
+        <v>0.01704525288272588</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.01021670087892437</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.01621200562140068</v>
+        <v>0.01621200562140069</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01292901206384162</v>
+        <v>0.01247373330250917</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009293137798313597</v>
+        <v>0.009432288946130483</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.005971911731572114</v>
+        <v>0.006318888625367748</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01253531565375508</v>
+        <v>0.01255493392730842</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01252723058804069</v>
+        <v>0.01270210593630285</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01212559402864551</v>
+        <v>0.01227934980928889</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.008157800721403045</v>
+        <v>0.008016698954558013</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01225005030813078</v>
+        <v>0.01210762330382762</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01367359626463664</v>
+        <v>0.01392179433862562</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0116583955532987</v>
+        <v>0.01175603973126024</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.007902657592385367</v>
+        <v>0.007983640461477771</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01336047961593701</v>
+        <v>0.01356141123181187</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0218158423528154</v>
+        <v>0.02194451073057407</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01764000730047602</v>
+        <v>0.01725590317841286</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01294518920901509</v>
+        <v>0.01336794675497199</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02250115623867711</v>
+        <v>0.02245817622945288</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02143218670027817</v>
+        <v>0.02124561445018671</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02067531596091173</v>
+        <v>0.0213921967501156</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01540130121006203</v>
+        <v>0.01512733970932975</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01988163131071137</v>
+        <v>0.01975847898467285</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02022537227755782</v>
+        <v>0.02031356930901283</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01759998271478757</v>
+        <v>0.01738793818340759</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01296672821864899</v>
+        <v>0.01305308834307417</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01996941648219766</v>
+        <v>0.01969679674492376</v>
       </c>
     </row>
     <row r="19">
@@ -1603,37 +1603,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7361</v>
+        <v>6973</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2251</v>
+        <v>2233</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3009</v>
+        <v>2753</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7802</v>
+        <v>7713</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3566</v>
+        <v>3572</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7485</v>
+        <v>7432</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>18528</v>
+        <v>18098</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7570</v>
+        <v>7380</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>12061</v>
+        <v>12130</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10268</v>
+        <v>10598</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23444</v>
+        <v>21873</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13100</v>
+        <v>12552</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15075</v>
+        <v>14344</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5153</v>
+        <v>5112</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>24010</v>
+        <v>23862</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14191</v>
+        <v>14330</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22096</v>
+        <v>21316</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>12170</v>
+        <v>12266</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>40510</v>
+        <v>38784</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>21524</v>
+        <v>21481</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>29067</v>
+        <v>30815</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7285</v>
+        <v>7735</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7283</v>
+        <v>7292</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2931</v>
+        <v>2856</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10231</v>
+        <v>11020</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8455</v>
+        <v>8405</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8365</v>
+        <v>8483</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6128</v>
+        <v>6246</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11264</v>
+        <v>11193</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>19920</v>
+        <v>19468</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>19300</v>
+        <v>19027</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>12498</v>
+        <v>11989</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>25240</v>
+        <v>24806</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>23368</v>
+        <v>23499</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>23395</v>
+        <v>24700</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15844</v>
+        <v>16461</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>33709</v>
+        <v>33846</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>23838</v>
+        <v>24169</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>24591</v>
+        <v>24356</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>22050</v>
+        <v>21788</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>27191</v>
+        <v>26474</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>41274</v>
+        <v>41344</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>41209</v>
+        <v>42470</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>31753</v>
+        <v>32068</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>51095</v>
+        <v>53476</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10922</v>
+        <v>11423</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4803</v>
+        <v>4947</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5904</v>
+        <v>5971</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9075</v>
+        <v>10171</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10522</v>
+        <v>10105</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1994</v>
+        <v>2109</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5002</v>
+        <v>5106</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11837</v>
+        <v>12619</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>25447</v>
+        <v>25745</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>10106</v>
+        <v>9682</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>13014</v>
+        <v>13847</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>25978</v>
+        <v>26718</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>29509</v>
+        <v>30202</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17317</v>
+        <v>18505</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22207</v>
+        <v>21211</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>30427</v>
+        <v>31667</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27063</v>
+        <v>27231</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12624</v>
+        <v>12061</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18111</v>
+        <v>18062</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30507</v>
+        <v>31031</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>50235</v>
+        <v>50262</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>26474</v>
+        <v>25601</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>32881</v>
+        <v>34417</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>55307</v>
+        <v>55818</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12172</v>
+        <v>12116</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2874</v>
+        <v>2808</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1790</v>
+        <v>1807</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9004</v>
+        <v>9092</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>14958</v>
+        <v>14283</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14037</v>
+        <v>13191</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4008</v>
+        <v>4186</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3530</v>
+        <v>3825</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>31078</v>
+        <v>30559</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>18959</v>
+        <v>18931</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>8226</v>
+        <v>8580</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>15411</v>
+        <v>15851</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29966</v>
+        <v>30456</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13398</v>
+        <v>13262</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10645</v>
+        <v>10587</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27656</v>
+        <v>26527</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>34470</v>
+        <v>34448</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>33058</v>
+        <v>31857</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17257</v>
+        <v>16345</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12445</v>
+        <v>13082</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>57592</v>
+        <v>57349</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>40314</v>
+        <v>38479</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>23977</v>
+        <v>23233</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>34474</v>
+        <v>35937</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>42263</v>
+        <v>40775</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>31588</v>
+        <v>32061</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20097</v>
+        <v>21265</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>44190</v>
+        <v>44259</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>42229</v>
+        <v>42819</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>42724</v>
+        <v>43265</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>28701</v>
+        <v>28204</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>45701</v>
+        <v>45169</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>90791</v>
+        <v>92439</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>80705</v>
+        <v>81381</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>54398</v>
+        <v>54955</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>96943</v>
+        <v>98401</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>71313</v>
+        <v>71734</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>59959</v>
+        <v>58654</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>43564</v>
+        <v>44987</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>79323</v>
+        <v>79171</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>72248</v>
+        <v>71619</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>72848</v>
+        <v>75374</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>54185</v>
+        <v>53221</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>74172</v>
+        <v>73712</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>134294</v>
+        <v>134879</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>121835</v>
+        <v>120368</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>89256</v>
+        <v>89851</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>144897</v>
+        <v>142918</v>
       </c>
     </row>
     <row r="24">
